--- a/Result/checksun/造紙工業.xlsx
+++ b/Result/checksun/造紙工業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.71</v>
+        <v>0.24</v>
       </c>
       <c r="D2" t="n">
-        <v>70.843</v>
+        <v>64.38500000000001</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,12 +720,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -753,43 +753,43 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W2" t="n">
         <v>-40</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>9262150</v>
+        <v>3624298</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>10.26</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,50 +881,50 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.59</v>
+        <v>-0.71</v>
       </c>
       <c r="D3" t="n">
-        <v>92.393</v>
+        <v>70.843</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-0.71</v>
+        <v>0.24</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -932,39 +932,39 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>-40</v>
       </c>
       <c r="X3" t="n">
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>18</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>5055907</v>
+        <v>9262150</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>10.26</v>
       </c>
       <c r="AK3" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,15 +1075,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.12</v>
+        <v>0.59</v>
       </c>
       <c r="D4" t="n">
-        <v>198.29</v>
+        <v>92.393</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1093,32 +1093,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>42.05</v>
+        <v>42.3</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>-0.12</v>
+        <v>-0.48</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1136,48 +1136,48 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>-40</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>-16</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>11429993</v>
+        <v>5055907</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>10.26</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,45 +1269,45 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.18</v>
+        <v>0.12</v>
       </c>
       <c r="D5" t="n">
-        <v>172.794</v>
+        <v>198.29</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>42</v>
+        <v>42.05</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1320,58 +1320,58 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>-40</v>
       </c>
       <c r="X5" t="n">
-        <v>-24</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>-10546391</v>
+        <v>11429993</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>10.26</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,50 +1463,50 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.88</v>
+        <v>-1.18</v>
       </c>
       <c r="D6" t="n">
-        <v>243.871</v>
+        <v>172.794</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>-1.19</v>
+        <v>0.24</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1524,32 +1524,32 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-22.95</t>
+          <t>-3.27</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W6" t="n">
         <v>-40</v>
       </c>
       <c r="X6" t="n">
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>16174577</v>
+        <v>-10546391</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>10.26</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,50 +1657,50 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.48</v>
+        <v>7.88</v>
       </c>
       <c r="D7" t="n">
-        <v>343.145</v>
+        <v>243.871</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.06</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.60</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.15</v>
+        <v>42.5</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.79</v>
+        <v>-0.95</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1723,27 +1723,27 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-6.75</t>
+          <t>-22.95</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>-40</v>
       </c>
       <c r="X7" t="n">
-        <v>-32</v>
+        <v>-22</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1755,11 +1755,11 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>-18535637</v>
+        <v>16174577</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>10.26</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,50 +1851,50 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.75</v>
+        <v>-2.48</v>
       </c>
       <c r="D8" t="n">
-        <v>486.449</v>
+        <v>343.145</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-3.06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>40.15</v>
+        <v>39.15</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.4</v>
+        <v>7.01</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1902,42 +1902,42 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-6.75</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>-40</v>
       </c>
       <c r="X8" t="n">
-        <v>-20</v>
+        <v>-32</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
@@ -1949,11 +1949,11 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>2373561</v>
+        <v>-18535637</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>10.26</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,50 +2045,50 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11.04</v>
+        <v>0.75</v>
       </c>
       <c r="D9" t="n">
-        <v>612.052</v>
+        <v>486.449</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>17.86</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>39.85</v>
+        <v>40.15</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.12</v>
+        <v>4.63</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -2096,58 +2096,58 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>-40</v>
       </c>
       <c r="X9" t="n">
-        <v>-47</v>
+        <v>-20</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>-13508808</v>
+        <v>2373561</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>10.26</v>
       </c>
       <c r="AK9" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,50 +2239,50 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.34</v>
+        <v>-11.04</v>
       </c>
       <c r="D10" t="n">
-        <v>164.739</v>
+        <v>612.052</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.25</v>
+        <v>39.85</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-5.36</v>
+        <v>5.34</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -2290,58 +2290,58 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>-40</v>
       </c>
       <c r="X10" t="n">
+        <v>-47</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7</v>
       </c>
-      <c r="Y10" t="n">
-        <v>-4</v>
-      </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>4907316</v>
+        <v>-13508808</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>10.26</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.11</v>
+        <v>15.14</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>11219</t>
+          <t>11246</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,32 +2433,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.35</v>
+        <v>-1.75</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.063</v>
+        <v>1745.811</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.17</v>
+        <v>9.01</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
@@ -2466,17 +2466,17 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2509,33 +2509,33 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>-100</v>
       </c>
       <c r="X11" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>22931737</v>
+        <v>-11592172</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2572,11 +2572,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2625,50 +2625,50 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.29</v>
+        <v>-2.35</v>
       </c>
       <c r="D12" t="n">
-        <v>1833.753</v>
+        <v>1398.063</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9.390000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>-2.4</v>
+        <v>-1.78</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -2676,22 +2676,22 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2701,33 +2701,33 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="W12" t="n">
         <v>-100</v>
       </c>
       <c r="X12" t="n">
-        <v>-35</v>
+        <v>-3</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>55060065</v>
+        <v>22931737</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2764,11 +2764,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2817,50 +2817,50 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.65</v>
+        <v>1.29</v>
       </c>
       <c r="D13" t="n">
-        <v>1992.914</v>
+        <v>1833.753</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>9.27</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>-1.09</v>
+        <v>-4.22</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2878,48 +2878,48 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>-100</v>
       </c>
       <c r="X13" t="n">
-        <v>-60</v>
+        <v>-35</v>
       </c>
       <c r="Y13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>49167511</v>
+        <v>55060065</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2956,11 +2956,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3000,7 +3000,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3009,45 +3009,45 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.11</v>
+        <v>0.65</v>
       </c>
       <c r="D14" t="n">
-        <v>2095.074</v>
+        <v>1992.914</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.210000000000001</v>
+        <v>9.27</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>-0.44</v>
+        <v>-2.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3085,17 +3085,17 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W14" t="n">
         <v>-100</v>
       </c>
       <c r="X14" t="n">
-        <v>-57</v>
+        <v>-60</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3107,11 +3107,11 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-9942836</v>
+        <v>49167511</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3148,11 +3148,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3192,7 +3192,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3201,45 +3201,45 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.16</v>
+        <v>0.11</v>
       </c>
       <c r="D15" t="n">
-        <v>1226.219</v>
+        <v>2095.074</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>-0.33</v>
+        <v>-2.22</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3252,42 +3252,42 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>-100</v>
       </c>
       <c r="X15" t="n">
-        <v>-49</v>
+        <v>-57</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
@@ -3299,11 +3299,11 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-66011565</v>
+        <v>-9942836</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3340,11 +3340,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3384,7 +3384,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3393,50 +3393,50 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-8.56</v>
+        <v>9.16</v>
       </c>
       <c r="D16" t="n">
-        <v>4660.398</v>
+        <v>1226.219</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-7.40</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>28.48</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.369999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>8.720000000000001</v>
+        <v>-2.11</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -3444,42 +3444,42 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="W16" t="n">
         <v>-100</v>
       </c>
       <c r="X16" t="n">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
@@ -3491,11 +3491,11 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-88708814</v>
+        <v>-66011565</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3532,11 +3532,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3576,7 +3576,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3585,50 +3585,50 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4.95</v>
+        <v>-8.56</v>
       </c>
       <c r="D17" t="n">
-        <v>4066.102</v>
+        <v>4660.398</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-7.40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>28.48</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.140000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.33</v>
+        <v>7.1</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -3636,42 +3636,42 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>-100</v>
       </c>
       <c r="X17" t="n">
-        <v>-38</v>
+        <v>-48</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3683,11 +3683,11 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-28048497</v>
+        <v>-88708814</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3724,11 +3724,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3768,7 +3768,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3777,50 +3777,50 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-11.05</v>
+        <v>-4.95</v>
       </c>
       <c r="D18" t="n">
-        <v>1192.479</v>
+        <v>4066.102</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>24.84</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.59</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-4.58</v>
+        <v>-1.44</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -3828,42 +3828,42 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>-100</v>
       </c>
       <c r="X18" t="n">
-        <v>-30</v>
+        <v>-38</v>
       </c>
       <c r="Y18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
@@ -3875,11 +3875,11 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>-8661667</v>
+        <v>-28048497</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3916,11 +3916,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3969,15 +3969,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.39</v>
+        <v>-11.05</v>
       </c>
       <c r="D19" t="n">
-        <v>1943.593</v>
+        <v>1192.479</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3987,32 +3987,32 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11.88</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10.65</v>
+        <v>9.59</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-16.14</v>
+        <v>-6.44</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -4020,42 +4020,42 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="W19" t="n">
         <v>-100</v>
       </c>
       <c r="X19" t="n">
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
@@ -4067,11 +4067,11 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-21089688</v>
+        <v>-8661667</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4108,11 +4108,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4161,32 +4161,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-2.06</v>
+        <v>-2.26</v>
       </c>
       <c r="D20" t="n">
-        <v>1088.897</v>
+        <v>1103.409</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19.16</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -4212,42 +4212,42 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>-95</v>
       </c>
       <c r="X20" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
@@ -4259,11 +4259,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>24076875</v>
+        <v>-36188828</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4282,14 +4282,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>12.46</v>
       </c>
       <c r="AK20" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
@@ -4346,7 +4346,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4355,36 +4355,36 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.69</v>
+        <v>-2.06</v>
       </c>
       <c r="D21" t="n">
-        <v>795.875</v>
+        <v>1088.897</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>19.16</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>26.85</v>
+        <v>26.3</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-2.09</v>
+        <v>-2.33</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -4393,12 +4393,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -4406,42 +4406,42 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="W21" t="n">
         <v>-95</v>
       </c>
       <c r="X21" t="n">
-        <v>-43</v>
+        <v>-7</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
@@ -4453,11 +4453,11 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>84222358</v>
+        <v>24076875</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4476,14 +4476,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>12.46</v>
       </c>
       <c r="AK21" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4496,11 +4496,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4549,36 +4549,36 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.58</v>
+        <v>1.69</v>
       </c>
       <c r="D22" t="n">
-        <v>1199.022</v>
+        <v>795.875</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>21.10</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>26.4</v>
+        <v>26.85</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-0.38</v>
+        <v>-4.47</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -4587,12 +4587,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4610,48 +4610,48 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>-95</v>
       </c>
       <c r="X22" t="n">
-        <v>-73</v>
+        <v>-43</v>
       </c>
       <c r="Y22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>77210526</v>
+        <v>84222358</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4670,14 +4670,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>12.46</v>
       </c>
       <c r="AK22" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4690,11 +4690,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4734,7 +4734,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4743,36 +4743,36 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.38</v>
+        <v>0.58</v>
       </c>
       <c r="D23" t="n">
-        <v>1216.188</v>
+        <v>1199.022</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>21.10</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>26.25</v>
+        <v>26.4</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.19</v>
+        <v>-2.72</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4794,58 +4794,58 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="W23" t="n">
         <v>-95</v>
       </c>
       <c r="X23" t="n">
-        <v>-84</v>
+        <v>-73</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-26504664</v>
+        <v>77210526</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4864,14 +4864,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>12.46</v>
       </c>
       <c r="AK23" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4884,11 +4884,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4928,7 +4928,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4937,36 +4937,36 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.199999999999999</v>
+        <v>3.38</v>
       </c>
       <c r="D24" t="n">
-        <v>559.633</v>
+        <v>1216.188</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25.4</v>
+        <v>26.25</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>3.42</v>
+        <v>-2.14</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -4975,12 +4975,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -4988,42 +4988,42 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-95</v>
       </c>
       <c r="X24" t="n">
-        <v>-89</v>
+        <v>-84</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5035,11 +5035,11 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-115838527</v>
+        <v>-26504664</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5058,14 +5058,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>12.46</v>
       </c>
       <c r="AK24" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5078,11 +5078,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5131,36 +5131,36 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-8.02</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>3003.663</v>
+        <v>559.633</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-7.57</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.1</v>
+        <v>25.4</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>12.17</v>
+        <v>1.17</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -5169,12 +5169,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -5182,39 +5182,39 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-95</v>
       </c>
       <c r="X25" t="n">
-        <v>-79</v>
+        <v>-89</v>
       </c>
       <c r="Y25" t="n">
         <v>18</v>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-158117199</v>
+        <v>-115838527</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5252,14 +5252,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>12.46</v>
       </c>
       <c r="AK25" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5272,11 +5272,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5316,7 +5316,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5325,36 +5325,36 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-4.1</v>
+        <v>-8.02</v>
       </c>
       <c r="D26" t="n">
-        <v>2308.513</v>
+        <v>3003.663</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-7.57</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40.62</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>25.1</v>
+        <v>23.1</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>4.56</v>
+        <v>10.12</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -5363,12 +5363,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -5376,42 +5376,42 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>-95</v>
       </c>
       <c r="X26" t="n">
-        <v>-63</v>
+        <v>-79</v>
       </c>
       <c r="Y26" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
@@ -5423,11 +5423,11 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-70244287</v>
+        <v>-158117199</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5446,14 +5446,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>12.46</v>
       </c>
       <c r="AK26" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5466,11 +5466,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5510,7 +5510,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5519,36 +5519,36 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-11.11</v>
+        <v>-4.1</v>
       </c>
       <c r="D27" t="n">
-        <v>1076.171</v>
+        <v>2308.513</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>40.62</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>26.1</v>
+        <v>25.1</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.76</v>
+        <v>2.33</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -5557,12 +5557,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -5570,42 +5570,42 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="W27" t="n">
         <v>-95</v>
       </c>
       <c r="X27" t="n">
-        <v>-55</v>
+        <v>-63</v>
       </c>
       <c r="Y27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5617,11 +5617,11 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>7831685</v>
+        <v>-70244287</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5640,14 +5640,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>12.46</v>
       </c>
       <c r="AK27" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5660,11 +5660,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5713,36 +5713,36 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.87</v>
+        <v>-11.11</v>
       </c>
       <c r="D28" t="n">
-        <v>547.515</v>
+        <v>1076.171</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29</v>
+        <v>26.1</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-10.27</v>
+        <v>-1.56</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -5751,12 +5751,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -5764,42 +5764,42 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W28" t="n">
         <v>-95</v>
       </c>
       <c r="X28" t="n">
-        <v>-42</v>
+        <v>-55</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5811,11 +5811,11 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-2246748</v>
+        <v>7831685</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5834,14 +5834,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>12.46</v>
       </c>
       <c r="AK28" t="n">
-        <v>26.84</v>
+        <v>26.22</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5854,11 +5854,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5898,7 +5898,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5907,32 +5907,32 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-2.72</v>
+        <v>1.96</v>
       </c>
       <c r="D29" t="n">
-        <v>100.041</v>
+        <v>21.596</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16.93</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="J29" t="n">
-        <v>12.55</v>
+        <v>12.8</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
@@ -5940,17 +5940,17 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -5968,32 +5968,32 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="W29" t="n">
         <v>-100</v>
       </c>
       <c r="X29" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Y29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
@@ -6005,11 +6005,11 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>3474865</v>
+        <v>1052871</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6028,14 +6028,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>4.86</v>
       </c>
       <c r="AK29" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6048,11 +6048,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6092,7 +6092,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6101,50 +6101,50 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.97</v>
+        <v>-2.72</v>
       </c>
       <c r="D30" t="n">
-        <v>160.226</v>
+        <v>100.041</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>27.11</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.9</v>
+        <v>12.55</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-2.79</v>
+        <v>1.95</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -6152,27 +6152,27 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -6184,7 +6184,7 @@
         <v>-100</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="n">
         <v>44</v>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>7347501</v>
+        <v>3474865</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -6222,14 +6222,14 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ30" t="n">
         <v>4.86</v>
       </c>
       <c r="AK30" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
@@ -6242,11 +6242,11 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6286,7 +6286,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6295,50 +6295,50 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.02</v>
+        <v>1.97</v>
       </c>
       <c r="D31" t="n">
-        <v>213.463</v>
+        <v>160.226</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>36.12</t>
+          <t>27.11</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.65</v>
+        <v>12.9</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>-0.8</v>
+        <v>-0.78</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -6356,29 +6356,29 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>-100</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
         <v>44</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>6377025</v>
+        <v>7347501</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -6416,14 +6416,14 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ31" t="n">
         <v>4.86</v>
       </c>
       <c r="AK31" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
@@ -6436,11 +6436,11 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6480,7 +6480,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6489,50 +6489,50 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.34</v>
+        <v>8.02</v>
       </c>
       <c r="D32" t="n">
-        <v>222.063</v>
+        <v>213.463</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>37.57</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.7</v>
+        <v>12.65</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>6.77</v>
+        <v>1.17</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -6540,58 +6540,58 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>-100</v>
       </c>
       <c r="X32" t="n">
-        <v>-68</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>1580293</v>
+        <v>6377025</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -6610,14 +6610,14 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ32" t="n">
         <v>4.86</v>
       </c>
       <c r="AK32" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
@@ -6630,11 +6630,11 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -6674,7 +6674,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6683,45 +6683,45 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.68</v>
+        <v>1.34</v>
       </c>
       <c r="D33" t="n">
-        <v>94.005</v>
+        <v>222.063</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>15.91</t>
+          <t>37.57</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.55</v>
+        <v>11.7</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>7.97</v>
+        <v>8.59</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -6734,42 +6734,42 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="W33" t="n">
         <v>-100</v>
       </c>
       <c r="X33" t="n">
-        <v>-86</v>
+        <v>-68</v>
       </c>
       <c r="Y33" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6781,11 +6781,11 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-2215709</v>
+        <v>1580293</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -6804,14 +6804,14 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ33" t="n">
         <v>4.86</v>
       </c>
       <c r="AK33" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
@@ -6824,11 +6824,11 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -6868,7 +6868,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6877,50 +6877,50 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-9.01</v>
+        <v>9.68</v>
       </c>
       <c r="D34" t="n">
-        <v>192.907</v>
+        <v>94.005</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-6.65</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-2.53</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>32.64</t>
+          <t>15.91</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>10.5</v>
+        <v>11.55</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>16.33</v>
+        <v>9.77</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -6928,42 +6928,42 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>-100</v>
       </c>
       <c r="X34" t="n">
-        <v>-89</v>
+        <v>-86</v>
       </c>
       <c r="Y34" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
@@ -6975,11 +6975,11 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-7763788</v>
+        <v>-2215709</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -6998,14 +6998,14 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ34" t="n">
         <v>4.86</v>
       </c>
       <c r="AK34" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -7018,11 +7018,11 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7062,7 +7062,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7071,50 +7071,50 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-6.64</v>
+        <v>-9.01</v>
       </c>
       <c r="D35" t="n">
-        <v>102.995</v>
+        <v>192.907</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-4.32</t>
+          <t>-6.65</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>32.64</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>8.369999999999999</v>
+        <v>17.97</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -7122,42 +7122,42 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="W35" t="n">
         <v>-100</v>
       </c>
       <c r="X35" t="n">
-        <v>-78</v>
+        <v>-89</v>
       </c>
       <c r="Y35" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
@@ -7169,11 +7169,11 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-4881258</v>
+        <v>-7763788</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -7192,14 +7192,14 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ35" t="n">
         <v>4.86</v>
       </c>
       <c r="AK35" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
@@ -7212,11 +7212,11 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -7256,7 +7256,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7265,50 +7265,50 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-9.92</v>
+        <v>-6.64</v>
       </c>
       <c r="D36" t="n">
-        <v>361.062</v>
+        <v>102.995</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>-4.32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>61.09</t>
+          <t>17.43</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12.25</v>
+        <v>11.5</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>2.39</v>
+        <v>10.16</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -7316,42 +7316,42 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="W36" t="n">
         <v>-100</v>
       </c>
       <c r="X36" t="n">
-        <v>-92</v>
+        <v>-78</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
@@ -7363,11 +7363,11 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-3139773</v>
+        <v>-4881258</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -7386,14 +7386,14 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ36" t="n">
         <v>4.86</v>
       </c>
       <c r="AK36" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
@@ -7406,11 +7406,11 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -7450,7 +7450,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7459,50 +7459,50 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.13</v>
+        <v>-9.92</v>
       </c>
       <c r="D37" t="n">
-        <v>58.034</v>
+        <v>361.062</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>61.09</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>13.5</v>
+        <v>12.25</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>-7.57</v>
+        <v>4.3</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -7510,42 +7510,42 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W37" t="n">
         <v>-100</v>
       </c>
       <c r="X37" t="n">
-        <v>-27</v>
+        <v>-92</v>
       </c>
       <c r="Y37" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7557,11 +7557,11 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>390279</v>
+        <v>-3139773</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -7580,14 +7580,14 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ37" t="n">
         <v>4.86</v>
       </c>
       <c r="AK37" t="n">
-        <v>50.2</v>
+        <v>51.2</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -7600,11 +7600,11 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -7644,7 +7644,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7653,32 +7653,32 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-2.97</v>
+        <v>-1.53</v>
       </c>
       <c r="D38" t="n">
-        <v>715.127</v>
+        <v>539.943</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>13.25</v>
+        <v>13.05</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
@@ -7686,17 +7686,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -7704,42 +7704,42 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>-99</v>
       </c>
       <c r="X38" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
@@ -7751,11 +7751,11 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-12358336</v>
+        <v>-1312504</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7792,11 +7792,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV38" t="inlineStr">
@@ -7836,7 +7836,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7845,50 +7845,50 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.58</v>
+        <v>-2.97</v>
       </c>
       <c r="D39" t="n">
-        <v>1130.903</v>
+        <v>715.127</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.65</v>
+        <v>13.25</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-3.02</v>
+        <v>-1.53</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -7896,39 +7896,39 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>-99</v>
       </c>
       <c r="X39" t="n">
-        <v>-33</v>
+        <v>3</v>
       </c>
       <c r="Y39" t="n">
         <v>15</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>18245494</v>
+        <v>-12358336</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -7984,11 +7984,11 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV39" t="inlineStr">
@@ -8028,7 +8028,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8037,50 +8037,50 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.38</v>
+        <v>4.58</v>
       </c>
       <c r="D40" t="n">
-        <v>1366.593</v>
+        <v>1130.903</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-3.07</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>13.05</v>
+        <v>13.65</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.51</v>
+        <v>-4.6</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -8088,58 +8088,58 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>-99</v>
       </c>
       <c r="X40" t="n">
-        <v>-66</v>
+        <v>-33</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>18913694</v>
+        <v>18245494</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -8176,11 +8176,11 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -8220,7 +8220,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -8229,50 +8229,50 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.97</v>
+        <v>-0.38</v>
       </c>
       <c r="D41" t="n">
-        <v>1633.674</v>
+        <v>1366.593</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-3.07</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>13.1</v>
+        <v>13.05</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -8280,12 +8280,12 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -8295,24 +8295,24 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="W41" t="n">
         <v>-99</v>
       </c>
       <c r="X41" t="n">
-        <v>-57</v>
+        <v>-66</v>
       </c>
       <c r="Y41" t="n">
         <v>16</v>
@@ -8331,7 +8331,7 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-14482926</v>
+        <v>18913694</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -8368,11 +8368,11 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -8412,7 +8412,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8421,50 +8421,50 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.949999999999999</v>
+        <v>1.97</v>
       </c>
       <c r="D42" t="n">
-        <v>1238.405</v>
+        <v>1633.674</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.85</v>
+        <v>13.1</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>3.02</v>
+        <v>-0.38</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -8472,42 +8472,42 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>-99</v>
       </c>
       <c r="X42" t="n">
-        <v>-55</v>
+        <v>-57</v>
       </c>
       <c r="Y42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
@@ -8519,11 +8519,11 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-94588523</v>
+        <v>-14482926</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -8560,11 +8560,11 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -8604,7 +8604,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8613,50 +8613,50 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-9.77</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>4245.437</v>
+        <v>1238.405</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-9.83</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.7</v>
+        <v>12.85</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>11.7</v>
+        <v>1.53</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -8664,42 +8664,42 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>-99</v>
       </c>
       <c r="X43" t="n">
-        <v>-51</v>
+        <v>-55</v>
       </c>
       <c r="Y43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
@@ -8711,11 +8711,11 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-116388274</v>
+        <v>-94588523</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -8752,11 +8752,11 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -8796,7 +8796,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8805,50 +8805,50 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-8.33</v>
+        <v>-9.77</v>
       </c>
       <c r="D44" t="n">
-        <v>4626.414</v>
+        <v>4245.437</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-9.83</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>12.95</v>
+        <v>11.7</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>2.26</v>
+        <v>10.34</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -8856,42 +8856,42 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>-99</v>
       </c>
       <c r="X44" t="n">
-        <v>-38</v>
+        <v>-51</v>
       </c>
       <c r="Y44" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
@@ -8903,11 +8903,11 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-45066458</v>
+        <v>-116388274</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -8944,11 +8944,11 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -8988,7 +8988,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8997,50 +8997,50 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-11.07</v>
+        <v>-8.33</v>
       </c>
       <c r="D45" t="n">
-        <v>420.553</v>
+        <v>4626.414</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14</v>
+        <v>12.95</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>-5.66</v>
+        <v>0.77</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -9048,42 +9048,42 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="W45" t="n">
         <v>-99</v>
       </c>
       <c r="X45" t="n">
-        <v>-8</v>
+        <v>-38</v>
       </c>
       <c r="Y45" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
@@ -9095,11 +9095,11 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>29891036</v>
+        <v>-45066458</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -9136,11 +9136,11 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -9180,7 +9180,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -9189,50 +9189,50 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.32</v>
+        <v>-11.07</v>
       </c>
       <c r="D46" t="n">
-        <v>1298.828</v>
+        <v>420.553</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.55</v>
+        <v>14</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>-17.36</v>
+        <v>-7.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>540</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -9240,42 +9240,42 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>-99</v>
       </c>
       <c r="X46" t="n">
-        <v>-22</v>
+        <v>-8</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
@@ -9287,11 +9287,11 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>5863061</v>
+        <v>29891036</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -9328,11 +9328,11 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -9372,7 +9372,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -9381,32 +9381,32 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1.94</v>
+        <v>-0.28</v>
       </c>
       <c r="D47" t="n">
-        <v>672.529</v>
+        <v>325.175</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>17.85</v>
+        <v>17.8</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
@@ -9414,12 +9414,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9428,31 +9428,31 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -9464,10 +9464,10 @@
         <v>-99</v>
       </c>
       <c r="X47" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Y47" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Z47" t="b">
         <v>0</v>
@@ -9479,11 +9479,11 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>28351875</v>
+        <v>2370665</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9502,14 +9502,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>10.71</v>
       </c>
       <c r="AK47" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9522,11 +9522,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
@@ -9566,7 +9566,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9575,93 +9575,93 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.68</v>
+        <v>-1.94</v>
       </c>
       <c r="D48" t="n">
-        <v>1111.603</v>
+        <v>672.529</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>25.12</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>18.2</v>
+        <v>17.85</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>-1.96</v>
+        <v>-0.28</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="W48" t="n">
         <v>-99</v>
       </c>
       <c r="X48" t="n">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="Y48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="b">
         <v>0</v>
@@ -9673,11 +9673,11 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>69447029</v>
+        <v>28351875</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9696,14 +9696,14 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ48" t="n">
         <v>10.71</v>
       </c>
       <c r="AK48" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -9716,11 +9716,11 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -9760,7 +9760,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9769,58 +9769,58 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.25</v>
+        <v>1.68</v>
       </c>
       <c r="D49" t="n">
-        <v>1138.745</v>
+        <v>1111.603</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>25.73</t>
+          <t>25.12</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>-0.28</v>
+        <v>-2.25</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -9830,29 +9830,29 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>-99</v>
       </c>
       <c r="X49" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="Y49" t="n">
         <v>10</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>62601798</v>
+        <v>69447029</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9890,14 +9890,14 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ49" t="n">
         <v>10.71</v>
       </c>
       <c r="AK49" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -9910,11 +9910,11 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -9954,7 +9954,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9963,109 +9963,109 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.68</v>
+        <v>2.25</v>
       </c>
       <c r="D50" t="n">
-        <v>1680.234</v>
+        <v>1138.745</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>37.97</t>
+          <t>25.73</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.96</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="W50" t="n">
         <v>-99</v>
       </c>
       <c r="X50" t="n">
-        <v>-37</v>
+        <v>-40</v>
       </c>
       <c r="Y50" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="b">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>4443044</v>
+        <v>62601798</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10084,14 +10084,14 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ50" t="n">
         <v>10.71</v>
       </c>
       <c r="AK50" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
@@ -10104,11 +10104,11 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -10148,7 +10148,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10157,93 +10157,93 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9.119999999999999</v>
+        <v>2.68</v>
       </c>
       <c r="D51" t="n">
-        <v>783.676</v>
+        <v>1680.234</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>37.97</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>17.05</v>
+        <v>17.5</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>4.48</v>
+        <v>1.69</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="W51" t="n">
         <v>-99</v>
       </c>
       <c r="X51" t="n">
-        <v>-50</v>
+        <v>-37</v>
       </c>
       <c r="Y51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z51" t="b">
         <v>0</v>
@@ -10255,11 +10255,11 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>-67032938</v>
+        <v>4443044</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10278,14 +10278,14 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ51" t="n">
         <v>10.71</v>
       </c>
       <c r="AK51" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -10298,11 +10298,11 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -10342,7 +10342,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10351,90 +10351,90 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-6.36</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>2385.547</v>
+        <v>783.676</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-5.80</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>53.91</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>15.5</v>
+        <v>17.05</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>13.17</v>
+        <v>4.21</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="W52" t="n">
         <v>-99</v>
       </c>
       <c r="X52" t="n">
-        <v>-46</v>
+        <v>-50</v>
       </c>
       <c r="Y52" t="n">
         <v>5</v>
@@ -10453,7 +10453,7 @@
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>-96829796</v>
+        <v>-67032938</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10472,14 +10472,14 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ52" t="n">
         <v>10.71</v>
       </c>
       <c r="AK52" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
@@ -10492,11 +10492,11 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -10536,7 +10536,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10545,93 +10545,93 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-4.73</v>
+        <v>-6.36</v>
       </c>
       <c r="D53" t="n">
-        <v>2595.648</v>
+        <v>2385.547</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>-5.80</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>58.66</t>
+          <t>53.91</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>16.55</v>
+        <v>15.5</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>7.28</v>
+        <v>12.92</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>-99</v>
       </c>
       <c r="X53" t="n">
-        <v>-40</v>
+        <v>-46</v>
       </c>
       <c r="Y53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z53" t="b">
         <v>0</v>
@@ -10643,11 +10643,11 @@
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>-47370409</v>
+        <v>-96829796</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10666,14 +10666,14 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ53" t="n">
         <v>10.71</v>
       </c>
       <c r="AK53" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
@@ -10686,11 +10686,11 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
@@ -10730,7 +10730,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10739,93 +10739,93 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-10.98</v>
+        <v>-4.73</v>
       </c>
       <c r="D54" t="n">
-        <v>950.328</v>
+        <v>2595.648</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>58.66</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>17.3</v>
+        <v>16.55</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>3.08</v>
+        <v>7.02</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
           <t>-0.08</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-2.85</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W54" t="n">
         <v>-99</v>
       </c>
       <c r="X54" t="n">
-        <v>-23</v>
+        <v>-40</v>
       </c>
       <c r="Y54" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Z54" t="b">
         <v>0</v>
@@ -10837,11 +10837,11 @@
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>10839510</v>
+        <v>-47370409</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -10860,14 +10860,14 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ54" t="n">
         <v>10.71</v>
       </c>
       <c r="AK54" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL54" t="inlineStr">
         <is>
@@ -10880,11 +10880,11 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
@@ -10924,7 +10924,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10933,93 +10933,93 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.06</v>
+        <v>-10.98</v>
       </c>
       <c r="D55" t="n">
-        <v>601.5410000000001</v>
+        <v>950.328</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>-7.56</v>
+        <v>2.81</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>325</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>-6.45</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>-99</v>
       </c>
       <c r="X55" t="n">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z55" t="b">
         <v>0</v>
@@ -11031,11 +11031,11 @@
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>-3094110</v>
+        <v>10839510</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11054,14 +11054,14 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="AJ55" t="n">
         <v>10.71</v>
       </c>
       <c r="AK55" t="n">
-        <v>32.45</v>
+        <v>32.36</v>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
@@ -11074,11 +11074,11 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>19783</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
@@ -11118,7 +11118,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11127,32 +11127,32 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-2.06</v>
+        <v>0.89</v>
       </c>
       <c r="D56" t="n">
-        <v>230.861</v>
+        <v>28.929</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>45.1</v>
+        <v>45.5</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
@@ -11160,17 +11160,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -11178,12 +11178,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -11193,43 +11193,43 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="W56" t="n">
         <v>-90</v>
       </c>
       <c r="X56" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="Y56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z56" t="b">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>-19044053</v>
+        <v>-2734581</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11266,11 +11266,11 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
@@ -11310,7 +11310,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -11319,50 +11319,50 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.75</v>
+        <v>-2.06</v>
       </c>
       <c r="D57" t="n">
-        <v>139.625</v>
+        <v>230.861</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>46.05</v>
+        <v>45.1</v>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>-2.11</v>
+        <v>0.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -11370,58 +11370,58 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="W57" t="n">
         <v>-90</v>
       </c>
       <c r="X57" t="n">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="Y57" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Z57" t="b">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE57" t="n">
-        <v>-16819627</v>
+        <v>-19044053</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
@@ -11458,11 +11458,11 @@
         </is>
       </c>
       <c r="AN57" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
@@ -11502,7 +11502,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -11511,50 +11511,50 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-2.26</v>
+        <v>1.75</v>
       </c>
       <c r="D58" t="n">
-        <v>327.861</v>
+        <v>139.625</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>45.25</v>
+        <v>46.05</v>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>-0.33</v>
+        <v>-1.21</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -11562,12 +11562,12 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -11577,27 +11577,27 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="W58" t="n">
         <v>-90</v>
       </c>
       <c r="X58" t="n">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="Y58" t="n">
-        <v>-9</v>
+        <v>16</v>
       </c>
       <c r="Z58" t="b">
         <v>0</v>
@@ -11609,11 +11609,11 @@
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE58" t="n">
-        <v>-3999378</v>
+        <v>-16819627</v>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
@@ -11650,11 +11650,11 @@
         </is>
       </c>
       <c r="AN58" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP58" t="inlineStr">
@@ -11694,7 +11694,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11703,50 +11703,50 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.75</v>
+        <v>-2.26</v>
       </c>
       <c r="D59" t="n">
-        <v>180.553</v>
+        <v>327.861</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>46.3</v>
+        <v>45.25</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>-2.66</v>
+        <v>0.55</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -11754,42 +11754,42 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="W59" t="n">
         <v>-90</v>
       </c>
       <c r="X59" t="n">
-        <v>-51</v>
+        <v>3</v>
       </c>
       <c r="Y59" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="Z59" t="b">
         <v>0</v>
@@ -11801,11 +11801,11 @@
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE59" t="n">
-        <v>-19005175</v>
+        <v>-3999378</v>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
@@ -11842,11 +11842,11 @@
         </is>
       </c>
       <c r="AN59" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP59" t="inlineStr">
@@ -11886,7 +11886,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -11895,50 +11895,50 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.93</v>
+        <v>-0.75</v>
       </c>
       <c r="D60" t="n">
-        <v>414.534</v>
+        <v>180.553</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>46.65</v>
+        <v>46.3</v>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>-3.44</v>
+        <v>-1.76</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -11946,42 +11946,42 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="W60" t="n">
         <v>-90</v>
       </c>
       <c r="X60" t="n">
-        <v>-13</v>
+        <v>-51</v>
       </c>
       <c r="Y60" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="Z60" t="b">
         <v>0</v>
@@ -11993,11 +11993,11 @@
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE60" t="n">
-        <v>9613423</v>
+        <v>-19005175</v>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
@@ -12034,11 +12034,11 @@
         </is>
       </c>
       <c r="AN60" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP60" t="inlineStr">
@@ -12078,7 +12078,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -12087,50 +12087,50 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-8.92</v>
+        <v>7.93</v>
       </c>
       <c r="D61" t="n">
-        <v>676.795</v>
+        <v>414.534</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-8.14</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>43</v>
+        <v>46.65</v>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>4.66</v>
+        <v>-2.53</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -12138,42 +12138,42 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="W61" t="n">
         <v>-90</v>
       </c>
       <c r="X61" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="Y61" t="n">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="Z61" t="b">
         <v>0</v>
@@ -12185,11 +12185,11 @@
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AE61" t="n">
-        <v>-54194698</v>
+        <v>9613423</v>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
@@ -12226,11 +12226,11 @@
         </is>
       </c>
       <c r="AN61" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP61" t="inlineStr">
@@ -12270,7 +12270,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -12279,50 +12279,50 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.53</v>
+        <v>-8.92</v>
       </c>
       <c r="D62" t="n">
-        <v>434.392</v>
+        <v>676.795</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>-8.14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>47.15</v>
+        <v>43</v>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>-4.55</v>
+        <v>5.49</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -12330,42 +12330,42 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="W62" t="n">
         <v>-90</v>
       </c>
       <c r="X62" t="n">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="Y62" t="n">
-        <v>-24</v>
+        <v>-19</v>
       </c>
       <c r="Z62" t="b">
         <v>0</v>
@@ -12377,11 +12377,11 @@
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AE62" t="n">
-        <v>6895564</v>
+        <v>-54194698</v>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
@@ -12418,11 +12418,11 @@
         </is>
       </c>
       <c r="AN62" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP62" t="inlineStr">
@@ -12462,7 +12462,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -12471,50 +12471,50 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-10.83</v>
+        <v>0.53</v>
       </c>
       <c r="D63" t="n">
-        <v>949.395</v>
+        <v>434.392</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>46.9</v>
+        <v>47.15</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>-3.99</v>
+        <v>-3.63</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -12522,58 +12522,58 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="W63" t="n">
         <v>-90</v>
       </c>
       <c r="X63" t="n">
-        <v>-30</v>
+        <v>-12</v>
       </c>
       <c r="Y63" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="Z63" t="b">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE63" t="n">
-        <v>-4439497</v>
+        <v>6895564</v>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
@@ -12610,11 +12610,11 @@
         </is>
       </c>
       <c r="AN63" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP63" t="inlineStr">
@@ -12654,7 +12654,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -12663,50 +12663,50 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5.15</v>
+        <v>-10.83</v>
       </c>
       <c r="D64" t="n">
-        <v>604.871</v>
+        <v>949.395</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>52</v>
+        <v>46.9</v>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>-15.3</v>
+        <v>-3.08</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -12714,58 +12714,58 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W64" t="n">
         <v>-90</v>
       </c>
       <c r="X64" t="n">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="Y64" t="n">
-        <v>-39</v>
+        <v>-27</v>
       </c>
       <c r="Z64" t="b">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AE64" t="n">
-        <v>23465736</v>
+        <v>-4439497</v>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
@@ -12802,11 +12802,11 @@
         </is>
       </c>
       <c r="AN64" t="n">
-        <v>31.15</v>
+        <v>31.23</v>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="AP64" t="inlineStr">

--- a/Result/checksun/造紙工業.xlsx
+++ b/Result/checksun/造紙工業.xlsx
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>43149097</v>
+        <v>23160732</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>9546393</v>
+        <v>35726152</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>29345378</v>
+        <v>23595151</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>-27200039</v>
+        <v>-11446713</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>26044593</v>
+        <v>34202251</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-15911514</v>
+        <v>-4230461</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>7211674</v>
+        <v>13992845</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>135166</v>
+        <v>3924378</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>10161287</v>
+        <v>14341628</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>8541652</v>
+        <v>8044736</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>8022492</v>
+        <v>7413510</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>1519766</v>
+        <v>13442491</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-8466752</v>
+        <v>69591760</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>6399745</v>
+        <v>71629891</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>6720225</v>
+        <v>68921377</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>23996526</v>
+        <v>70450317</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>55204977</v>
+        <v>78952082</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>58894449</v>
+        <v>76095111</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>54061986</v>
+        <v>54016208</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>10025169</v>
+        <v>27077526</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>3306703</v>
+        <v>-968194</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-7608195</v>
+        <v>-20330728</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>13721936</v>
+        <v>5460185</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>13893959</v>
+        <v>18656840</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>11285136</v>
+        <v>32210884</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>23395474</v>
+        <v>97346288</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>26863703</v>
+        <v>91105624</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-33271697</v>
+        <v>58393974</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>88026998</v>
+        <v>95324267</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-19357917</v>
+        <v>53231872</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>54197445</v>
+        <v>59448976</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-14076184</v>
+        <v>-19009230</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>83599838</v>
+        <v>31528343</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>37468226</v>
+        <v>-32758478</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>21373453</v>
+        <v>-41121874</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-11010049</v>
+        <v>-27994620</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>-864047</v>
+        <v>-1634413</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>-1142733</v>
+        <v>-3507536</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>-984956</v>
+        <v>-3750143</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>-2129785</v>
+        <v>-3473292</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>509300</v>
+        <v>-2073548</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>354783</v>
+        <v>-1890853</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>1359419</v>
+        <v>-1307954</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-2874103</v>
+        <v>-3776743</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-3119970</v>
+        <v>-3012507</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-2702926</v>
+        <v>-4357240</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>291255</v>
+        <v>150231</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>874334</v>
+        <v>3582328</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>8991220</v>
+        <v>157533659</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>6712259</v>
+        <v>174728659</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>12326154</v>
+        <v>158264528</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>21211952</v>
+        <v>136652041</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>134524792</v>
+        <v>159621339</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>140483898</v>
+        <v>135411940</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>127330487</v>
+        <v>106705426</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>33491608</v>
+        <v>843676</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>5454476</v>
+        <v>-26556518</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>-11890398</v>
+        <v>-42579790</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>-8395061</v>
+        <v>-33960436</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>-10526434</v>
+        <v>-44369330</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>11089007</v>
+        <v>76810145</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>13766914</v>
+        <v>94044802</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>25594109</v>
+        <v>90807070</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>33011763</v>
+        <v>69257832</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>81719745</v>
+        <v>85593551</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>46117494</v>
+        <v>54653929</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>32709375</v>
+        <v>22611820</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>-1441857</v>
+        <v>-20697673</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>19095467</v>
+        <v>-11526467</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>3536694</v>
+        <v>-32590948</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>5315663</v>
+        <v>-16885151</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>-10559032</v>
+        <v>-2270059</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>46728990</v>
+        <v>296844198</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>60551174</v>
+        <v>338651592</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>33444336</v>
+        <v>282194976</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>-35118685</v>
+        <v>256875812</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>251230559</v>
+        <v>287663088</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>244102532</v>
+        <v>257770155</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>285233893</v>
+        <v>293049328</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>26869859</v>
+        <v>17521615</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>4648108</v>
+        <v>-11919560</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>6760604</v>
+        <v>-12567930</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>9562670</v>
+        <v>-12082825</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>9019515</v>
+        <v>-35611721</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>

--- a/Result/checksun/造紙工業.xlsx
+++ b/Result/checksun/造紙工業.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS85"/>
+  <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,85 +576,95 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -771,79 +781,85 @@
       <c r="AB2" t="n">
         <v>3704.789062821256</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AC2" t="n">
+        <v>5007.773357491331</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -960,79 +976,85 @@
       <c r="AB3" t="n">
         <v>3631.764722555689</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AC3" t="n">
+        <v>5014.785538784286</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -1149,79 +1171,85 @@
       <c r="AB4" t="n">
         <v>5263.609123025759</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC4" t="n">
+        <v>6592.185828691421</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -1338,79 +1366,85 @@
       <c r="AB5" t="n">
         <v>6167.251738011024</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" t="n">
+        <v>6654.468122998261</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -1527,79 +1561,85 @@
       <c r="AB6" t="n">
         <v>5028.231498250652</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AC6" t="n">
+        <v>6334.809547255545</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -1716,79 +1756,85 @@
       <c r="AB7" t="n">
         <v>-2724.155649003926</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>-3199.777179742364</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -1905,79 +1951,85 @@
       <c r="AB8" t="n">
         <v>5477.989320909634</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC8" t="n">
+        <v>7135.133495597683</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -2094,79 +2146,85 @@
       <c r="AB9" t="n">
         <v>-2413.036883265567</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AC9" t="n">
+        <v>-2784.098238209277</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -2283,79 +2341,85 @@
       <c r="AB10" t="n">
         <v>3942.808009528235</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v>4397.161129638076</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -2464,79 +2528,85 @@
       <c r="AB11" t="n">
         <v>2573.781070720663</v>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" t="n">
+        <v>3369.974628984616</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -2645,79 +2715,85 @@
       <c r="AB12" t="n">
         <v>3369.322187028127</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC12" t="n">
+        <v>3614.917288127074</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP12" t="n">
+      <c r="AR12" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -2826,79 +2902,85 @@
       <c r="AB13" t="n">
         <v>3458.086031318481</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AC13" t="n">
+        <v>2367.134343462576</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>永豐實</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>10.09</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>16.02</v>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>24.47%</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>11300</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>商品銷售及服務100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>永豐實-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP13" t="n">
+      <c r="AR13" t="n">
         <v>22.45</v>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、家庭用紙** 其他 - 其他</t>
         </is>
@@ -3015,77 +3097,83 @@
       <c r="AB14" t="n">
         <v>8196.037579220827</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC14" t="n">
+        <v>7301.182849374477</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr">
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP14" t="n">
+      <c r="AR14" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -3202,77 +3290,83 @@
       <c r="AB15" t="n">
         <v>9034.843274788998</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC15" t="n">
+        <v>8857.295862733727</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr">
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP15" t="n">
+      <c r="AR15" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -3389,77 +3483,83 @@
       <c r="AB16" t="n">
         <v>7807.360117222723</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" t="n">
+        <v>9224.550720766838</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr">
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP16" t="n">
+      <c r="AR16" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -3576,77 +3676,83 @@
       <c r="AB17" t="n">
         <v>8781.259306044891</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" t="n">
+        <v>10723.62420080077</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr">
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP17" t="n">
+      <c r="AR17" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -3763,77 +3869,83 @@
       <c r="AB18" t="n">
         <v>8029.286767826891</v>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AC18" t="n">
+        <v>10865.93065503365</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AI18" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr">
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP18" t="n">
+      <c r="AR18" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -3950,77 +4062,83 @@
       <c r="AB19" t="n">
         <v>9118.309053766494</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AC19" t="n">
+        <v>9144.192255196738</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr">
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP19" t="n">
+      <c r="AR19" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -4137,77 +4255,83 @@
       <c r="AB20" t="n">
         <v>9198.082898082621</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC20" t="n">
+        <v>6525.703486981308</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr">
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP20" t="n">
+      <c r="AR20" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -4324,77 +4448,83 @@
       <c r="AB21" t="n">
         <v>8081.561606521353</v>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AC21" t="n">
+        <v>4758.088902069821</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AI21" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr">
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP21" t="n">
+      <c r="AR21" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -4511,77 +4641,83 @@
       <c r="AB22" t="n">
         <v>7904.268150815735</v>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AC22" t="n">
+        <v>5618.828080658813</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr">
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP22" t="n">
+      <c r="AR22" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -4690,77 +4826,83 @@
       <c r="AB23" t="n">
         <v>3351.252900036045</v>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AC23" t="n">
+        <v>-4613.224252082268</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr">
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP23" t="n">
+      <c r="AR23" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -4869,77 +5011,83 @@
       <c r="AB24" t="n">
         <v>-3723.944279926863</v>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AC24" t="n">
+        <v>-7572.630124335929</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr">
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP24" t="n">
+      <c r="AR24" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -5048,77 +5196,83 @@
       <c r="AB25" t="n">
         <v>-1782.330777381123</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AC25" t="n">
+        <v>-9391.668701567363</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>榮成</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>7.71</v>
       </c>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr">
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>0.41%</t>
         </is>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>12706</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>工業用紙74.80%、紙箱22.59%、廢紙2.59%、其他0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>榮成-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP25" t="n">
+      <c r="AR25" t="n">
         <v>15.99</v>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料</t>
         </is>
@@ -5235,79 +5389,85 @@
       <c r="AB26" t="n">
         <v>-9239.725320592601</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AC26" t="n">
+        <v>-9089.543112830259</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AJ26" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP26" t="n">
+      <c r="AR26" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -5424,79 +5584,85 @@
       <c r="AB27" t="n">
         <v>-1208.98552514081</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AC27" t="n">
+        <v>-3608.134143847759</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AJ27" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK27" t="n">
+      <c r="AM27" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP27" t="n">
+      <c r="AR27" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -5613,79 +5779,85 @@
       <c r="AB28" t="n">
         <v>7859.756484777375</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AC28" t="n">
+        <v>7232.21224799162</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AJ28" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK28" t="n">
+      <c r="AM28" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP28" t="n">
+      <c r="AR28" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -5802,79 +5974,85 @@
       <c r="AB29" t="n">
         <v>10764.29421745801</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC29" t="n">
+        <v>10919.9487178283</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AJ29" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP29" t="n">
+      <c r="AR29" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -5991,79 +6169,85 @@
       <c r="AB30" t="n">
         <v>8971.355527455145</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC30" t="n">
+        <v>10424.51600794972</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP30" t="n">
+      <c r="AR30" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS30" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -6180,79 +6364,85 @@
       <c r="AB31" t="n">
         <v>8477.268958809789</v>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AC31" t="n">
+        <v>3809.867976715204</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AJ31" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AL31" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK31" t="n">
+      <c r="AM31" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP31" t="n">
+      <c r="AR31" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -6369,79 +6559,85 @@
       <c r="AB32" t="n">
         <v>9025.769053105669</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AC32" t="n">
+        <v>-4470.874746623976</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AJ32" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AL32" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK32" t="n">
+      <c r="AM32" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP32" t="n">
+      <c r="AR32" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS32" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -6558,79 +6754,85 @@
       <c r="AB33" t="n">
         <v>4626.534556231046</v>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AC33" t="n">
+        <v>-8735.580576012106</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ33" t="inlineStr">
+      <c r="AL33" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK33" t="n">
+      <c r="AM33" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP33" t="n">
+      <c r="AR33" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AU33" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -6747,79 +6949,85 @@
       <c r="AB34" t="n">
         <v>8878.585867129968</v>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AC34" t="n">
+        <v>-4738.934057359313</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AI34" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AJ34" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI34" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ34" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK34" t="n">
+      <c r="AM34" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP34" t="n">
+      <c r="AR34" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -6936,79 +7144,85 @@
       <c r="AB35" t="n">
         <v>-6901.009853637364</v>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AC35" t="n">
+        <v>-10009.19747032698</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AI35" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AJ35" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK35" t="n">
+      <c r="AM35" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP35" t="n">
+      <c r="AR35" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -7125,79 +7339,85 @@
       <c r="AB36" t="n">
         <v>1659.135316964834</v>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AC36" t="n">
+        <v>-7694.101571983567</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AI36" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI36" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ36" t="inlineStr">
+      <c r="AL36" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK36" t="n">
+      <c r="AM36" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP36" t="n">
+      <c r="AR36" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -7306,79 +7526,85 @@
       <c r="AB37" t="n">
         <v>-3399.556735811303</v>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AC37" t="n">
+        <v>-11629.30105380371</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="inlineStr">
         <is>
           <t>永豐餘</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AI37" t="n">
         <v>12.46</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AJ37" t="n">
         <v>37.47</v>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AL37" t="inlineStr">
         <is>
           <t>-1.17%</t>
         </is>
       </c>
-      <c r="AK37" t="n">
+      <c r="AM37" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>45411</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>商品銷售84.03%、其他15.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>永豐餘-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP37" t="n">
+      <c r="AR37" t="n">
         <v>39.75</v>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AU37" t="inlineStr">
         <is>
           <t>** 造紙 - 紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙** 其他 - 文化印刷業</t>
         </is>
@@ -7487,77 +7713,83 @@
       <c r="AB38" t="n">
         <v>-1002.387150755635</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AC38" t="n">
+        <v>-2300.487991709585</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG38" t="n">
+      <c r="AI38" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr">
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ38" t="inlineStr">
+      <c r="AL38" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK38" t="n">
+      <c r="AM38" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP38" t="n">
+      <c r="AR38" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS38" t="inlineStr">
+      <c r="AU38" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -7666,77 +7898,83 @@
       <c r="AB39" t="n">
         <v>-1117.04207619946</v>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AC39" t="n">
+        <v>-1884.715363125159</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG39" t="n">
+      <c r="AI39" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr">
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ39" t="inlineStr">
+      <c r="AL39" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK39" t="n">
+      <c r="AM39" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP39" t="n">
+      <c r="AR39" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -7845,77 +8083,83 @@
       <c r="AB40" t="n">
         <v>-2022.130806847074</v>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AC40" t="n">
+        <v>-1114.374263880856</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AG40" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AH40" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG40" t="n">
+      <c r="AI40" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr">
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ40" t="inlineStr">
+      <c r="AL40" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK40" t="n">
+      <c r="AM40" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AN40" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AO40" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP40" t="n">
+      <c r="AR40" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -8024,77 +8268,83 @@
       <c r="AB41" t="n">
         <v>-2059.776929669812</v>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AC41" t="n">
+        <v>1391.878227432271</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AG41" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AH41" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG41" t="n">
+      <c r="AI41" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr">
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ41" t="inlineStr">
+      <c r="AL41" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK41" t="n">
+      <c r="AM41" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP41" t="n">
+      <c r="AR41" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AU41" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -8203,77 +8453,83 @@
       <c r="AB42" t="n">
         <v>-1806.467270669469</v>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AC42" t="n">
+        <v>1874.101918253114</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG42" t="n">
+      <c r="AI42" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr">
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ42" t="inlineStr">
+      <c r="AL42" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK42" t="n">
+      <c r="AM42" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AN42" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP42" t="n">
+      <c r="AR42" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS42" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -8382,77 +8638,83 @@
       <c r="AB43" t="n">
         <v>-1712.807928519716</v>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AC43" t="n">
+        <v>1096.590169571112</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AH43" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG43" t="n">
+      <c r="AI43" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr">
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ43" t="inlineStr">
+      <c r="AL43" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK43" t="n">
+      <c r="AM43" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP43" t="n">
+      <c r="AR43" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AU43" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -8561,77 +8823,83 @@
       <c r="AB44" t="n">
         <v>-1491.849188088394</v>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AC44" t="n">
+        <v>929.7037162451272</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE44" t="inlineStr">
+      <c r="AG44" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AH44" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG44" t="n">
+      <c r="AI44" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr">
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ44" t="inlineStr">
+      <c r="AL44" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK44" t="n">
+      <c r="AM44" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AN44" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AO44" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP44" t="n">
+      <c r="AR44" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AU44" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -8740,77 +9008,83 @@
       <c r="AB45" t="n">
         <v>-1497.60308493272</v>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AC45" t="n">
+        <v>-1807.366592587126</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="AG45" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AH45" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG45" t="n">
+      <c r="AI45" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr">
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ45" t="inlineStr">
+      <c r="AL45" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK45" t="n">
+      <c r="AM45" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AO45" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP45" t="n">
+      <c r="AR45" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS45" t="inlineStr">
+      <c r="AU45" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -8919,77 +9193,83 @@
       <c r="AB46" t="n">
         <v>-1413.442959584857</v>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AC46" t="n">
+        <v>-1244.57342089569</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AH46" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG46" t="n">
+      <c r="AI46" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr">
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ46" t="inlineStr">
+      <c r="AL46" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK46" t="n">
+      <c r="AM46" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AO46" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP46" t="n">
+      <c r="AR46" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS46" t="inlineStr">
+      <c r="AU46" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -9098,77 +9378,83 @@
       <c r="AB47" t="n">
         <v>-1871.305693893972</v>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AC47" t="n">
+        <v>-1668.749232209561</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AH47" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG47" t="n">
+      <c r="AI47" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr">
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ47" t="inlineStr">
+      <c r="AL47" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK47" t="n">
+      <c r="AM47" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AO47" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP47" t="n">
+      <c r="AR47" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -9277,77 +9563,83 @@
       <c r="AB48" t="n">
         <v>-2070.61947252507</v>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AC48" t="n">
+        <v>-1797.519958164582</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG48" t="n">
+      <c r="AI48" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr">
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ48" t="inlineStr">
+      <c r="AL48" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK48" t="n">
+      <c r="AM48" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL48" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AO48" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP48" t="n">
+      <c r="AR48" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AU48" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -9456,77 +9748,83 @@
       <c r="AB49" t="n">
         <v>-1518.014822062024</v>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AC49" t="n">
+        <v>-2181.063043563849</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="inlineStr">
         <is>
           <t>寶隆</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AG49" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AH49" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="AG49" t="n">
+      <c r="AI49" t="n">
         <v>5.36</v>
       </c>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr">
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ49" t="inlineStr">
+      <c r="AL49" t="inlineStr">
         <is>
           <t>1.31%</t>
         </is>
       </c>
-      <c r="AK49" t="n">
+      <c r="AM49" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>1978</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>工業用紙100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>寶隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP49" t="n">
+      <c r="AR49" t="n">
         <v>19.39</v>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>** 造紙 - 銷售、進出口業務</t>
         </is>
@@ -9635,77 +9933,83 @@
       <c r="AB50" t="n">
         <v>12502.51450709016</v>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AC50" t="n">
+        <v>10965.1555848515</v>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AG50" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AH50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AI50" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr">
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ50" t="inlineStr">
+      <c r="AL50" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK50" t="n">
+      <c r="AM50" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AO50" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP50" t="n">
+      <c r="AR50" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -9814,77 +10118,83 @@
       <c r="AB51" t="n">
         <v>13116.61949589146</v>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AC51" t="n">
+        <v>12029.52995756692</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AH51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AI51" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr">
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ51" t="inlineStr">
+      <c r="AL51" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK51" t="n">
+      <c r="AM51" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AO51" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP51" t="n">
+      <c r="AR51" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS51" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -9993,77 +10303,83 @@
       <c r="AB52" t="n">
         <v>12812.41503386461</v>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AC52" t="n">
+        <v>10588.54319535979</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AG52" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AH52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AI52" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr">
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ52" t="inlineStr">
+      <c r="AL52" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK52" t="n">
+      <c r="AM52" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AN52" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AO52" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP52" t="n">
+      <c r="AR52" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -10172,77 +10488,83 @@
       <c r="AB53" t="n">
         <v>12925.06313330809</v>
       </c>
-      <c r="AC53" t="inlineStr">
+      <c r="AC53" t="n">
+        <v>11990.41463002844</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="AG53" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AH53" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AI53" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr">
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ53" t="inlineStr">
+      <c r="AL53" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK53" t="n">
+      <c r="AM53" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL53" t="inlineStr">
+      <c r="AN53" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AO53" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP53" t="n">
+      <c r="AR53" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AU53" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -10351,77 +10673,83 @@
       <c r="AB54" t="n">
         <v>12141.71371759357</v>
       </c>
-      <c r="AC54" t="inlineStr">
+      <c r="AC54" t="n">
+        <v>12283.6960235916</v>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AH54" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AI54" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr">
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ54" t="inlineStr">
+      <c r="AL54" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK54" t="n">
+      <c r="AM54" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL54" t="inlineStr">
+      <c r="AN54" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AO54" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP54" t="n">
+      <c r="AR54" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -10530,77 +10858,83 @@
       <c r="AB55" t="n">
         <v>12114.9369787878</v>
       </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AC55" t="n">
+        <v>9415.046521393297</v>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE55" t="inlineStr">
+      <c r="AG55" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AH55" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AI55" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr">
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ55" t="inlineStr">
+      <c r="AL55" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK55" t="n">
+      <c r="AM55" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL55" t="inlineStr">
+      <c r="AN55" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AO55" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP55" t="n">
+      <c r="AR55" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -10709,77 +11043,83 @@
       <c r="AB56" t="n">
         <v>12240.03937902162</v>
       </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AC56" t="n">
+        <v>6516.844405078274</v>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AH56" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AI56" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr">
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ56" t="inlineStr">
+      <c r="AL56" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK56" t="n">
+      <c r="AM56" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL56" t="inlineStr">
+      <c r="AN56" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AO56" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP56" t="n">
+      <c r="AR56" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -10888,77 +11228,83 @@
       <c r="AB57" t="n">
         <v>11241.01396672026</v>
       </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AC57" t="n">
+        <v>4709.008388185352</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE57" t="inlineStr">
+      <c r="AG57" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AH57" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AI57" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr">
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ57" t="inlineStr">
+      <c r="AL57" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK57" t="n">
+      <c r="AM57" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL57" t="inlineStr">
+      <c r="AN57" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
+      <c r="AO57" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AQ57" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP57" t="n">
+      <c r="AR57" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS57" t="inlineStr">
+      <c r="AU57" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -11067,77 +11413,83 @@
       <c r="AB58" t="n">
         <v>10065.13164345107</v>
       </c>
-      <c r="AC58" t="inlineStr">
+      <c r="AC58" t="n">
+        <v>4729.132161401286</v>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD58" t="inlineStr">
+      <c r="AF58" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE58" t="inlineStr">
+      <c r="AG58" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF58" t="inlineStr">
+      <c r="AH58" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AI58" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr">
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ58" t="inlineStr">
+      <c r="AL58" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK58" t="n">
+      <c r="AM58" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL58" t="inlineStr">
+      <c r="AN58" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM58" t="inlineStr">
+      <c r="AO58" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN58" t="inlineStr">
+      <c r="AP58" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO58" t="inlineStr">
+      <c r="AQ58" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP58" t="n">
+      <c r="AR58" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -11246,77 +11598,83 @@
       <c r="AB59" t="n">
         <v>-2488.129417855912</v>
       </c>
-      <c r="AC59" t="inlineStr">
+      <c r="AC59" t="n">
+        <v>-7884.446397813863</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD59" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE59" t="inlineStr">
+      <c r="AG59" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF59" t="inlineStr">
+      <c r="AH59" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AI59" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr">
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ59" t="inlineStr">
+      <c r="AL59" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK59" t="n">
+      <c r="AM59" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL59" t="inlineStr">
+      <c r="AN59" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
+      <c r="AO59" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN59" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr">
+      <c r="AQ59" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP59" t="n">
+      <c r="AR59" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS59" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -11425,77 +11783,83 @@
       <c r="AB60" t="n">
         <v>-6006.515795367561</v>
       </c>
-      <c r="AC60" t="inlineStr">
+      <c r="AC60" t="n">
+        <v>-10604.05945852813</v>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD60" t="inlineStr">
+      <c r="AF60" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE60" t="inlineStr">
+      <c r="AG60" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF60" t="inlineStr">
+      <c r="AH60" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AI60" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr">
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ60" t="inlineStr">
+      <c r="AL60" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK60" t="n">
+      <c r="AM60" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL60" t="inlineStr">
+      <c r="AN60" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
+      <c r="AO60" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN60" t="inlineStr">
+      <c r="AP60" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr">
+      <c r="AQ60" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP60" t="n">
+      <c r="AR60" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS60" t="inlineStr">
+      <c r="AU60" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -11604,77 +11968,83 @@
       <c r="AB61" t="n">
         <v>-5228.395164866558</v>
       </c>
-      <c r="AC61" t="inlineStr">
+      <c r="AC61" t="n">
+        <v>-12039.12293317084</v>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="inlineStr">
         <is>
           <t>華紙</t>
         </is>
       </c>
-      <c r="AD61" t="inlineStr">
+      <c r="AF61" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE61" t="inlineStr">
+      <c r="AG61" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF61" t="inlineStr">
+      <c r="AH61" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AI61" t="n">
         <v>4.65</v>
       </c>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr">
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr">
         <is>
           <t>4.68%</t>
         </is>
       </c>
-      <c r="AJ61" t="inlineStr">
+      <c r="AL61" t="inlineStr">
         <is>
           <t>-5.41%</t>
         </is>
       </c>
-      <c r="AK61" t="n">
+      <c r="AM61" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL61" t="inlineStr">
+      <c r="AN61" t="inlineStr">
         <is>
           <t>15164</t>
         </is>
       </c>
-      <c r="AM61" t="inlineStr">
+      <c r="AO61" t="inlineStr">
         <is>
           <t>商品銷售99.25%、其他營業收入0.75% (2024年)</t>
         </is>
       </c>
-      <c r="AN61" t="inlineStr">
+      <c r="AP61" t="inlineStr">
         <is>
           <t>華紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr">
+      <c r="AQ61" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP61" t="n">
+      <c r="AR61" t="n">
         <v>14.44</v>
       </c>
-      <c r="AQ61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS61" t="inlineStr">
+      <c r="AU61" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、銷售、進出口業務、文化用紙</t>
         </is>
@@ -11791,79 +12161,85 @@
       <c r="AB62" t="n">
         <v>6611.532424483752</v>
       </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AC62" t="n">
+        <v>4485.475114188017</v>
+      </c>
+      <c r="AD62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE62" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr">
+      <c r="AF62" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE62" t="inlineStr">
+      <c r="AG62" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF62" t="inlineStr">
+      <c r="AH62" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AI62" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AJ62" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AK62" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ62" t="inlineStr">
+      <c r="AL62" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK62" t="n">
+      <c r="AM62" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL62" t="inlineStr">
+      <c r="AN62" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
+      <c r="AO62" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN62" t="inlineStr">
+      <c r="AP62" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr">
+      <c r="AQ62" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP62" t="n">
+      <c r="AR62" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS62" t="inlineStr">
+      <c r="AU62" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -11980,79 +12356,85 @@
       <c r="AB63" t="n">
         <v>7868.023640025493</v>
       </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AC63" t="n">
+        <v>7036.634778073962</v>
+      </c>
+      <c r="AD63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE63" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE63" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF63" t="inlineStr">
+      <c r="AH63" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG63" t="n">
+      <c r="AI63" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AJ63" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI63" t="inlineStr">
+      <c r="AK63" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ63" t="inlineStr">
+      <c r="AL63" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK63" t="n">
+      <c r="AM63" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL63" t="inlineStr">
+      <c r="AN63" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
+      <c r="AO63" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN63" t="inlineStr">
+      <c r="AP63" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr">
+      <c r="AQ63" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP63" t="n">
+      <c r="AR63" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS63" t="inlineStr">
+      <c r="AU63" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -12169,79 +12551,85 @@
       <c r="AB64" t="n">
         <v>9016.85804479587</v>
       </c>
-      <c r="AC64" t="inlineStr">
+      <c r="AC64" t="n">
+        <v>9199.862988110204</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE64" t="inlineStr">
+      <c r="AG64" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF64" t="inlineStr">
+      <c r="AH64" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG64" t="n">
+      <c r="AI64" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AJ64" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI64" t="inlineStr">
+      <c r="AK64" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ64" t="inlineStr">
+      <c r="AL64" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK64" t="n">
+      <c r="AM64" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL64" t="inlineStr">
+      <c r="AN64" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
+      <c r="AO64" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN64" t="inlineStr">
+      <c r="AP64" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AQ64" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP64" t="n">
+      <c r="AR64" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS64" t="inlineStr">
+      <c r="AU64" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -12358,79 +12746,85 @@
       <c r="AB65" t="n">
         <v>9982.415088544454</v>
       </c>
-      <c r="AC65" t="inlineStr">
+      <c r="AC65" t="n">
+        <v>11243.10006181569</v>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE65" t="inlineStr">
+      <c r="AG65" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF65" t="inlineStr">
+      <c r="AH65" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG65" t="n">
+      <c r="AI65" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AJ65" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI65" t="inlineStr">
+      <c r="AK65" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ65" t="inlineStr">
+      <c r="AL65" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK65" t="n">
+      <c r="AM65" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL65" t="inlineStr">
+      <c r="AN65" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM65" t="inlineStr">
+      <c r="AO65" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN65" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr">
+      <c r="AQ65" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP65" t="n">
+      <c r="AR65" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS65" t="inlineStr">
+      <c r="AU65" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -12547,79 +12941,85 @@
       <c r="AB66" t="n">
         <v>9178.582188987581</v>
       </c>
-      <c r="AC66" t="inlineStr">
+      <c r="AC66" t="n">
+        <v>11442.02377204313</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE66" t="inlineStr">
+      <c r="AG66" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF66" t="inlineStr">
+      <c r="AH66" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG66" t="n">
+      <c r="AI66" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AJ66" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI66" t="inlineStr">
+      <c r="AK66" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ66" t="inlineStr">
+      <c r="AL66" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK66" t="n">
+      <c r="AM66" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL66" t="inlineStr">
+      <c r="AN66" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
+      <c r="AO66" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
+      <c r="AP66" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO66" t="inlineStr">
+      <c r="AQ66" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP66" t="n">
+      <c r="AR66" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -12736,79 +13136,85 @@
       <c r="AB67" t="n">
         <v>8690.821882883114</v>
       </c>
-      <c r="AC67" t="inlineStr">
+      <c r="AC67" t="n">
+        <v>8831.280541348462</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD67" t="inlineStr">
+      <c r="AF67" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE67" t="inlineStr">
+      <c r="AG67" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF67" t="inlineStr">
+      <c r="AH67" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG67" t="n">
+      <c r="AI67" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AJ67" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI67" t="inlineStr">
+      <c r="AK67" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ67" t="inlineStr">
+      <c r="AL67" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK67" t="n">
+      <c r="AM67" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL67" t="inlineStr">
+      <c r="AN67" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM67" t="inlineStr">
+      <c r="AO67" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN67" t="inlineStr">
+      <c r="AP67" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO67" t="inlineStr">
+      <c r="AQ67" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP67" t="n">
+      <c r="AR67" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -12925,79 +13331,85 @@
       <c r="AB68" t="n">
         <v>8678.863116791277</v>
       </c>
-      <c r="AC68" t="inlineStr">
+      <c r="AC68" t="n">
+        <v>6753.328586704485</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE68" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr">
+      <c r="AF68" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE68" t="inlineStr">
+      <c r="AG68" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF68" t="inlineStr">
+      <c r="AH68" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG68" t="n">
+      <c r="AI68" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AJ68" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI68" t="inlineStr">
+      <c r="AK68" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ68" t="inlineStr">
+      <c r="AL68" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK68" t="n">
+      <c r="AM68" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL68" t="inlineStr">
+      <c r="AN68" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
+      <c r="AO68" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN68" t="inlineStr">
+      <c r="AP68" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO68" t="inlineStr">
+      <c r="AQ68" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP68" t="n">
+      <c r="AR68" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS68" t="inlineStr">
+      <c r="AU68" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -13114,79 +13526,85 @@
       <c r="AB69" t="n">
         <v>6709.546407917603</v>
       </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AC69" t="n">
+        <v>2914.790386974679</v>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AF69" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE69" t="inlineStr">
+      <c r="AG69" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF69" t="inlineStr">
+      <c r="AH69" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG69" t="n">
+      <c r="AI69" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AJ69" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI69" t="inlineStr">
+      <c r="AK69" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ69" t="inlineStr">
+      <c r="AL69" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK69" t="n">
+      <c r="AM69" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL69" t="inlineStr">
+      <c r="AN69" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
+      <c r="AO69" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN69" t="inlineStr">
+      <c r="AP69" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO69" t="inlineStr">
+      <c r="AQ69" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP69" t="n">
+      <c r="AR69" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS69" t="inlineStr">
+      <c r="AU69" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -13303,79 +13721,85 @@
       <c r="AB70" t="n">
         <v>4236.406850150254</v>
       </c>
-      <c r="AC70" t="inlineStr">
+      <c r="AC70" t="n">
+        <v>-1546.174634379959</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD70" t="inlineStr">
+      <c r="AF70" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE70" t="inlineStr">
+      <c r="AG70" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF70" t="inlineStr">
+      <c r="AH70" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG70" t="n">
+      <c r="AI70" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH70" t="n">
+      <c r="AJ70" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI70" t="inlineStr">
+      <c r="AK70" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ70" t="inlineStr">
+      <c r="AL70" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK70" t="n">
+      <c r="AM70" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL70" t="inlineStr">
+      <c r="AN70" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM70" t="inlineStr">
+      <c r="AO70" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN70" t="inlineStr">
+      <c r="AP70" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO70" t="inlineStr">
+      <c r="AQ70" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP70" t="n">
+      <c r="AR70" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS70" t="inlineStr">
+      <c r="AU70" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -13484,79 +13908,85 @@
       <c r="AB71" t="n">
         <v>-5143.926710208846</v>
       </c>
-      <c r="AC71" t="inlineStr">
+      <c r="AC71" t="n">
+        <v>-5027.20478994043</v>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE71" t="inlineStr">
+      <c r="AG71" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF71" t="inlineStr">
+      <c r="AH71" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG71" t="n">
+      <c r="AI71" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH71" t="n">
+      <c r="AJ71" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI71" t="inlineStr">
+      <c r="AK71" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ71" t="inlineStr">
+      <c r="AL71" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK71" t="n">
+      <c r="AM71" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL71" t="inlineStr">
+      <c r="AN71" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
+      <c r="AO71" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN71" t="inlineStr">
+      <c r="AP71" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO71" t="inlineStr">
+      <c r="AQ71" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP71" t="n">
+      <c r="AR71" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS71" t="inlineStr">
+      <c r="AU71" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -13665,79 +14095,85 @@
       <c r="AB72" t="n">
         <v>-4857.249633280135</v>
       </c>
-      <c r="AC72" t="inlineStr">
+      <c r="AC72" t="n">
+        <v>-6380.877760935403</v>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD72" t="inlineStr">
+      <c r="AF72" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE72" t="inlineStr">
+      <c r="AG72" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF72" t="inlineStr">
+      <c r="AH72" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG72" t="n">
+      <c r="AI72" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH72" t="n">
+      <c r="AJ72" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI72" t="inlineStr">
+      <c r="AK72" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ72" t="inlineStr">
+      <c r="AL72" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK72" t="n">
+      <c r="AM72" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL72" t="inlineStr">
+      <c r="AN72" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM72" t="inlineStr">
+      <c r="AO72" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN72" t="inlineStr">
+      <c r="AP72" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO72" t="inlineStr">
+      <c r="AQ72" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP72" t="n">
+      <c r="AR72" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS72" t="inlineStr">
+      <c r="AU72" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -13846,79 +14282,85 @@
       <c r="AB73" t="n">
         <v>-3520.165763142412</v>
       </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AC73" t="n">
+        <v>-8780.024145752675</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="inlineStr">
         <is>
           <t>正隆</t>
         </is>
       </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AF73" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE73" t="inlineStr">
+      <c r="AG73" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF73" t="inlineStr">
+      <c r="AH73" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="AG73" t="n">
+      <c r="AI73" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AH73" t="n">
+      <c r="AJ73" t="n">
         <v>49.86</v>
       </c>
-      <c r="AI73" t="inlineStr">
+      <c r="AK73" t="inlineStr">
         <is>
           <t>15.88%</t>
         </is>
       </c>
-      <c r="AJ73" t="inlineStr">
+      <c r="AL73" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
       </c>
-      <c r="AK73" t="n">
+      <c r="AM73" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL73" t="inlineStr">
+      <c r="AN73" t="inlineStr">
         <is>
           <t>20448</t>
         </is>
       </c>
-      <c r="AM73" t="inlineStr">
+      <c r="AO73" t="inlineStr">
         <is>
           <t>紙器50.99%、紙板32.96%、紙張9.92%、其他6.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN73" t="inlineStr">
+      <c r="AP73" t="inlineStr">
         <is>
           <t>正隆-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr">
+      <c r="AQ73" t="inlineStr">
         <is>
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="AP73" t="n">
+      <c r="AR73" t="n">
         <v>26.31</v>
       </c>
-      <c r="AQ73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS73" t="inlineStr">
+      <c r="AU73" t="inlineStr">
         <is>
           <t>** 造紙 - 紙漿、紙類原料、紙器及紙類製造印刷、加工、銷售、進出口業務、文化用紙、工業用紙、家庭用紙</t>
         </is>
@@ -14035,77 +14477,83 @@
       <c r="AB74" t="n">
         <v>17703.04047331983</v>
       </c>
-      <c r="AC74" t="inlineStr">
+      <c r="AC74" t="n">
+        <v>17058.70041943407</v>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD74" t="inlineStr">
+      <c r="AF74" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE74" t="inlineStr">
+      <c r="AG74" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF74" t="inlineStr">
+      <c r="AH74" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG74" t="n">
+      <c r="AI74" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr">
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ74" t="inlineStr">
+      <c r="AL74" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK74" t="n">
+      <c r="AM74" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL74" t="inlineStr">
+      <c r="AN74" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
+      <c r="AO74" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN74" t="inlineStr">
+      <c r="AP74" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO74" t="inlineStr">
+      <c r="AQ74" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP74" t="n">
+      <c r="AR74" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS74" t="inlineStr">
+      <c r="AU74" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -14222,77 +14670,83 @@
       <c r="AB75" t="n">
         <v>17794.9367517842</v>
       </c>
-      <c r="AC75" t="inlineStr">
+      <c r="AC75" t="n">
+        <v>17621.8749286221</v>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr">
+      <c r="AF75" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE75" t="inlineStr">
+      <c r="AG75" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF75" t="inlineStr">
+      <c r="AH75" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG75" t="n">
+      <c r="AI75" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH75" t="inlineStr"/>
-      <c r="AI75" t="inlineStr">
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ75" t="inlineStr">
+      <c r="AL75" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK75" t="n">
+      <c r="AM75" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL75" t="inlineStr">
+      <c r="AN75" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM75" t="inlineStr">
+      <c r="AO75" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN75" t="inlineStr">
+      <c r="AP75" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO75" t="inlineStr">
+      <c r="AQ75" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP75" t="n">
+      <c r="AR75" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS75" t="inlineStr">
+      <c r="AU75" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -14409,77 +14863,83 @@
       <c r="AB76" t="n">
         <v>17401.08401795704</v>
       </c>
-      <c r="AC76" t="inlineStr">
+      <c r="AC76" t="n">
+        <v>16604.54868402029</v>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD76" t="inlineStr">
+      <c r="AF76" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE76" t="inlineStr">
+      <c r="AG76" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF76" t="inlineStr">
+      <c r="AH76" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG76" t="n">
+      <c r="AI76" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="inlineStr">
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ76" t="inlineStr">
+      <c r="AL76" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK76" t="n">
+      <c r="AM76" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL76" t="inlineStr">
+      <c r="AN76" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
+      <c r="AO76" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN76" t="inlineStr">
+      <c r="AP76" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO76" t="inlineStr">
+      <c r="AQ76" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP76" t="n">
+      <c r="AR76" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS76" t="inlineStr">
+      <c r="AU76" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -14596,77 +15056,83 @@
       <c r="AB77" t="n">
         <v>18632.67627046636</v>
       </c>
-      <c r="AC77" t="inlineStr">
+      <c r="AC77" t="n">
+        <v>17415.81201092846</v>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD77" t="inlineStr">
+      <c r="AF77" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE77" t="inlineStr">
+      <c r="AG77" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF77" t="inlineStr">
+      <c r="AH77" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG77" t="n">
+      <c r="AI77" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr">
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ77" t="inlineStr">
+      <c r="AL77" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK77" t="n">
+      <c r="AM77" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL77" t="inlineStr">
+      <c r="AN77" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM77" t="inlineStr">
+      <c r="AO77" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN77" t="inlineStr">
+      <c r="AP77" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO77" t="inlineStr">
+      <c r="AQ77" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP77" t="n">
+      <c r="AR77" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS77" t="inlineStr">
+      <c r="AU77" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -14783,77 +15249,83 @@
       <c r="AB78" t="n">
         <v>16567.34800745128</v>
       </c>
-      <c r="AC78" t="inlineStr">
+      <c r="AC78" t="n">
+        <v>16049.54018032916</v>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD78" t="inlineStr">
+      <c r="AF78" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE78" t="inlineStr">
+      <c r="AG78" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF78" t="inlineStr">
+      <c r="AH78" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG78" t="n">
+      <c r="AI78" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="inlineStr">
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ78" t="inlineStr">
+      <c r="AL78" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK78" t="n">
+      <c r="AM78" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL78" t="inlineStr">
+      <c r="AN78" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM78" t="inlineStr">
+      <c r="AO78" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN78" t="inlineStr">
+      <c r="AP78" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO78" t="inlineStr">
+      <c r="AQ78" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP78" t="n">
+      <c r="AR78" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS78" t="inlineStr">
+      <c r="AU78" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -14970,77 +15442,83 @@
       <c r="AB79" t="n">
         <v>16298.20250825225</v>
       </c>
-      <c r="AC79" t="inlineStr">
+      <c r="AC79" t="n">
+        <v>14490.57873240403</v>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD79" t="inlineStr">
+      <c r="AF79" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE79" t="inlineStr">
+      <c r="AG79" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF79" t="inlineStr">
+      <c r="AH79" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG79" t="n">
+      <c r="AI79" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="inlineStr">
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ79" t="inlineStr">
+      <c r="AL79" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK79" t="n">
+      <c r="AM79" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL79" t="inlineStr">
+      <c r="AN79" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM79" t="inlineStr">
+      <c r="AO79" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN79" t="inlineStr">
+      <c r="AP79" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO79" t="inlineStr">
+      <c r="AQ79" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP79" t="n">
+      <c r="AR79" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS79" t="inlineStr">
+      <c r="AU79" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -15157,77 +15635,83 @@
       <c r="AB80" t="n">
         <v>17194.32947224171</v>
       </c>
-      <c r="AC80" t="inlineStr">
+      <c r="AC80" t="n">
+        <v>15886.24426980776</v>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD80" t="inlineStr">
+      <c r="AF80" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE80" t="inlineStr">
+      <c r="AG80" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF80" t="inlineStr">
+      <c r="AH80" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG80" t="n">
+      <c r="AI80" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH80" t="inlineStr"/>
-      <c r="AI80" t="inlineStr">
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ80" t="inlineStr">
+      <c r="AL80" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK80" t="n">
+      <c r="AM80" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL80" t="inlineStr">
+      <c r="AN80" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM80" t="inlineStr">
+      <c r="AO80" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN80" t="inlineStr">
+      <c r="AP80" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO80" t="inlineStr">
+      <c r="AQ80" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP80" t="n">
+      <c r="AR80" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -15344,77 +15828,83 @@
       <c r="AB81" t="n">
         <v>15559.16177048108</v>
       </c>
-      <c r="AC81" t="inlineStr">
+      <c r="AC81" t="n">
+        <v>13036.43762689792</v>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AF81" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE81" t="inlineStr">
+      <c r="AG81" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF81" t="inlineStr">
+      <c r="AH81" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG81" t="n">
+      <c r="AI81" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr">
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ81" t="inlineStr">
+      <c r="AL81" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK81" t="n">
+      <c r="AM81" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL81" t="inlineStr">
+      <c r="AN81" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM81" t="inlineStr">
+      <c r="AO81" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN81" t="inlineStr">
+      <c r="AP81" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO81" t="inlineStr">
+      <c r="AQ81" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP81" t="n">
+      <c r="AR81" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS81" t="inlineStr">
+      <c r="AU81" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -15531,77 +16021,83 @@
       <c r="AB82" t="n">
         <v>16788.06647592271</v>
       </c>
-      <c r="AC82" t="inlineStr">
+      <c r="AC82" t="n">
+        <v>15874.2282017111</v>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD82" t="inlineStr">
+      <c r="AF82" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE82" t="inlineStr">
+      <c r="AG82" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF82" t="inlineStr">
+      <c r="AH82" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG82" t="n">
+      <c r="AI82" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH82" t="inlineStr"/>
-      <c r="AI82" t="inlineStr">
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ82" t="inlineStr">
+      <c r="AL82" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK82" t="n">
+      <c r="AM82" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL82" t="inlineStr">
+      <c r="AN82" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM82" t="inlineStr">
+      <c r="AO82" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN82" t="inlineStr">
+      <c r="AP82" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO82" t="inlineStr">
+      <c r="AQ82" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP82" t="n">
+      <c r="AR82" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ82" t="inlineStr">
+      <c r="AS82" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS82" t="inlineStr">
+      <c r="AU82" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -15710,77 +16206,83 @@
       <c r="AB83" t="n">
         <v>4339.034915738752</v>
       </c>
-      <c r="AC83" t="inlineStr">
+      <c r="AC83" t="n">
+        <v>-1815.846634493123</v>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD83" t="inlineStr">
+      <c r="AF83" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE83" t="inlineStr">
+      <c r="AG83" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF83" t="inlineStr">
+      <c r="AH83" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG83" t="n">
+      <c r="AI83" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH83" t="inlineStr"/>
-      <c r="AI83" t="inlineStr">
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ83" t="inlineStr">
+      <c r="AL83" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK83" t="n">
+      <c r="AM83" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL83" t="inlineStr">
+      <c r="AN83" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM83" t="inlineStr">
+      <c r="AO83" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN83" t="inlineStr">
+      <c r="AP83" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO83" t="inlineStr">
+      <c r="AQ83" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP83" t="n">
+      <c r="AR83" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS83" t="inlineStr">
+      <c r="AU83" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -15889,77 +16391,83 @@
       <c r="AB84" t="n">
         <v>-4732.692890944858</v>
       </c>
-      <c r="AC84" t="inlineStr">
+      <c r="AC84" t="n">
+        <v>-7119.556868232741</v>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD84" t="inlineStr">
+      <c r="AF84" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE84" t="inlineStr">
+      <c r="AG84" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF84" t="inlineStr">
+      <c r="AH84" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG84" t="n">
+      <c r="AI84" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH84" t="inlineStr"/>
-      <c r="AI84" t="inlineStr">
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ84" t="inlineStr">
+      <c r="AL84" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK84" t="n">
+      <c r="AM84" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL84" t="inlineStr">
+      <c r="AN84" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM84" t="inlineStr">
+      <c r="AO84" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN84" t="inlineStr">
+      <c r="AP84" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO84" t="inlineStr">
+      <c r="AQ84" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP84" t="n">
+      <c r="AR84" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ84" t="inlineStr">
+      <c r="AS84" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS84" t="inlineStr">
+      <c r="AU84" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>
@@ -16068,77 +16576,83 @@
       <c r="AB85" t="n">
         <v>-2475.741909004249</v>
       </c>
-      <c r="AC85" t="inlineStr">
+      <c r="AC85" t="n">
+        <v>-7246.266417956215</v>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="inlineStr">
         <is>
           <t>士紙</t>
         </is>
       </c>
-      <c r="AD85" t="inlineStr">
+      <c r="AF85" t="inlineStr">
         <is>
           <t>造紙工業</t>
         </is>
       </c>
-      <c r="AE85" t="inlineStr">
+      <c r="AG85" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF85" t="inlineStr">
+      <c r="AH85" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG85" t="n">
+      <c r="AI85" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH85" t="inlineStr"/>
-      <c r="AI85" t="inlineStr">
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="AJ85" t="inlineStr">
+      <c r="AL85" t="inlineStr">
         <is>
           <t>-22.00%</t>
         </is>
       </c>
-      <c r="AK85" t="n">
+      <c r="AM85" t="n">
         <v>34.45</v>
       </c>
-      <c r="AL85" t="inlineStr">
+      <c r="AN85" t="inlineStr">
         <is>
           <t>13626</t>
         </is>
       </c>
-      <c r="AM85" t="inlineStr">
+      <c r="AO85" t="inlineStr">
         <is>
           <t>租賃49.43%、商品銷售27.99%、飯店客房22.58% (2024年)</t>
         </is>
       </c>
-      <c r="AN85" t="inlineStr">
+      <c r="AP85" t="inlineStr">
         <is>
           <t>士紙-造紙工業-上市</t>
         </is>
       </c>
-      <c r="AO85" t="inlineStr">
+      <c r="AQ85" t="inlineStr">
         <is>
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="AP85" t="n">
+      <c r="AR85" t="n">
         <v>19.79</v>
       </c>
-      <c r="AQ85" t="inlineStr">
+      <c r="AS85" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS85" t="inlineStr">
+      <c r="AU85" t="inlineStr">
         <is>
           <t>** 造紙 - 工業用紙</t>
         </is>

--- a/Result/checksun/造紙工業.xlsx
+++ b/Result/checksun/造紙工業.xlsx
@@ -722,10 +722,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -945,16 +945,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1171,13 +1171,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1391,16 +1391,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2063,17 +2063,17 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2506,20 +2506,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3171,16 +3171,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3403,10 +3403,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>-2</v>
@@ -3625,20 +3625,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="B15" t="n">
-        <v>33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-1</v>
-      </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -4067,20 +4067,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4284,16 +4284,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4501,20 +4501,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>-19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4718,20 +4718,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4935,20 +4935,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5582,20 +5582,20 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -5804,13 +5804,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6023,13 +6023,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6239,16 +6239,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B27" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6458,20 +6458,20 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B28" t="n">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="C28" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>-74</v>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -6677,16 +6677,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6896,20 +6896,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B30" t="n">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="C30" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D30" t="n">
-        <v>199</v>
+        <v>-70</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7118,17 +7118,17 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -7334,20 +7334,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7990,13 +7990,13 @@
         <v>-1</v>
       </c>
       <c r="B35" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8204,16 +8204,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B36" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C36" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8424,17 +8424,17 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -8641,13 +8641,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8858,13 +8858,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -9075,17 +9075,17 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -9289,20 +9289,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>-5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9509,17 +9509,17 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9723,20 +9723,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10370,16 +10370,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>-2</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-9</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10587,16 +10587,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10804,16 +10804,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
       </c>
       <c r="D48" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -11021,20 +11021,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
         <v>3</v>
       </c>
-      <c r="D49" t="n">
-        <v>-8</v>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -11241,17 +11241,17 @@
         <v>3</v>
       </c>
       <c r="B50" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D50" t="n">
-        <v>-23</v>
+        <v>-2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -11455,20 +11455,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -11672,20 +11672,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C52" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>76</v>
+        <v>-27</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11889,20 +11889,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12106,20 +12106,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12753,20 +12753,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B57" t="n">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -12972,20 +12972,20 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -13191,20 +13191,20 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B59" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -13410,20 +13410,20 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -13629,20 +13629,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>-78</v>
+        <v>12</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -13848,20 +13848,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -14067,20 +14067,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>170</v>
+        <v>-86</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14289,17 +14289,17 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -14505,20 +14505,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15158,20 +15158,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>-3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -15375,20 +15375,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B69" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -15592,16 +15592,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C70" t="n">
         <v>-1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -15809,10 +15809,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
         <v>-4</v>
@@ -16026,16 +16026,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -16243,10 +16243,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C73" t="n">
         <v>3</v>
@@ -16460,20 +16460,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16677,20 +16677,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -16894,20 +16894,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
